--- a/flbstats.xlsx
+++ b/flbstats.xlsx
@@ -339,1375 +339,943 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.683675</v>
+        <v>0.94809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.02705</v>
+        <v>1.98016</v>
       </c>
       <c r="B3">
-        <v>0.92754112</v>
+        <v>0.975604788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.0414</v>
+        <v>0.06188</v>
       </c>
       <c r="B4">
-        <v>1.000087148</v>
+        <v>0.01007985</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.00655</v>
+        <v>1.979055</v>
       </c>
       <c r="B5">
-        <v>1.000831638</v>
+        <v>0.957099909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1.973125</v>
+        <v>0.023205</v>
       </c>
       <c r="B6">
-        <v>2.012087235</v>
+        <v>0.00698598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.10865</v>
+        <v>1.98016</v>
       </c>
       <c r="B7">
-        <v>0.737514976</v>
+        <v>0.99777055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.00655</v>
+        <v>0.00884</v>
       </c>
       <c r="B8">
-        <v>0.252102382</v>
+        <v>0.00879694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.973125</v>
+        <v>1.98016</v>
       </c>
       <c r="B9">
-        <v>2.013555395</v>
+        <v>0.98520548</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.097375</v>
+        <v>0.06851</v>
       </c>
       <c r="B10">
-        <v>0.28151542</v>
+        <v>0.007718321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1.036275</v>
+        <v>1.979055</v>
       </c>
       <c r="B11">
-        <v>0.704004608</v>
+        <v>0.992696881</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1.0455</v>
+        <v>0.062985</v>
       </c>
       <c r="B12">
-        <v>1.000829557</v>
+        <v>0.00694049</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.99015</v>
+        <v>1.98016</v>
       </c>
       <c r="B13">
-        <v>0.997715377</v>
+        <v>0.998505012</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1.97415</v>
+        <v>0.12818</v>
       </c>
       <c r="B14">
-        <v>2.013110754</v>
+        <v>0.01056572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.115825</v>
+        <v>1.979055</v>
       </c>
       <c r="B15">
-        <v>1.170975022</v>
+        <v>0.989777702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1.973125</v>
+        <v>0.060775</v>
       </c>
       <c r="B16">
-        <v>0.840021822</v>
+        <v>0.00597125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.044075</v>
+        <v>1.979055</v>
       </c>
       <c r="B17">
-        <v>2.806810997</v>
+        <v>0.990396303</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.3981</v>
+        <v>0.014365</v>
       </c>
       <c r="B18">
-        <v>0.177074584</v>
+        <v>0.01208252</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.06355</v>
+        <v>1.98016</v>
       </c>
       <c r="B19">
-        <v>1.295282767</v>
+        <v>0.990903153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2.001825</v>
+        <v>0.03094</v>
       </c>
       <c r="B20">
-        <v>0.716213776</v>
+        <v>0.006103791</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1.589775</v>
+        <v>1.979055</v>
       </c>
       <c r="B21">
-        <v>2.505001046</v>
+        <v>0.984610484</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2.001825</v>
+        <v>0.054145</v>
       </c>
       <c r="B22">
-        <v>1.50089105</v>
+        <v>0.011566449</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1.6523</v>
+        <v>1.98016</v>
       </c>
       <c r="B23">
-        <v>2.032374112</v>
+        <v>0.994056395</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.095325</v>
+        <v>0.07956</v>
       </c>
       <c r="B24">
-        <v>0.510849673</v>
+        <v>0.00567559</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2.001825</v>
+        <v>1.979055</v>
       </c>
       <c r="B25">
-        <v>0.448579885</v>
+        <v>0.984535155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1.401175</v>
+        <v>0.111605</v>
       </c>
       <c r="B26">
-        <v>1.254042637</v>
+        <v>0.007673271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.00205</v>
+        <v>1.979055</v>
       </c>
       <c r="B27">
-        <v>1.18648957</v>
+        <v>0.999677875</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2.001825</v>
+        <v>0.069615</v>
       </c>
       <c r="B28">
-        <v>0.562415731</v>
+        <v>0.010767461</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1.01475</v>
+        <v>1.979055</v>
       </c>
       <c r="B29">
-        <v>0.971711577</v>
+        <v>0.986607606</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1.9762</v>
+        <v>0.087295</v>
       </c>
       <c r="B30">
-        <v>1.041626924</v>
+        <v>0.01279822</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.06765</v>
+        <v>1.979055</v>
       </c>
       <c r="B31">
-        <v>1.8526514870000002</v>
+        <v>0.994798207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2.001825</v>
+        <v>0.020995</v>
       </c>
       <c r="B32">
-        <v>1.131744621</v>
+        <v>0.006187691</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1.0086</v>
+        <v>1.98016</v>
       </c>
       <c r="B33">
-        <v>2.670439428</v>
+        <v>0.992287587</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>2.001825</v>
+        <v>0.00442</v>
       </c>
       <c r="B34">
-        <v>2.32793707</v>
+        <v>0.0088676</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2.001825</v>
+        <v>1.979055</v>
       </c>
       <c r="B35">
-        <v>1.691095241</v>
+        <v>1.018266279</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1.183875</v>
+        <v>0.025415</v>
       </c>
       <c r="B36">
-        <v>1.622906473</v>
+        <v>0.00907188</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.985025</v>
+        <v>1.98016</v>
       </c>
       <c r="B37">
-        <v>0.682147127</v>
+        <v>0.995557769</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>2.001825</v>
+        <v>0.06409</v>
       </c>
       <c r="B38">
-        <v>1.039478264</v>
+        <v>0.00604291</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1.973125</v>
+        <v>1.979055</v>
       </c>
       <c r="B39">
-        <v>1.4907742769999999</v>
+        <v>0.997342229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.068675</v>
+        <v>0.05083</v>
       </c>
       <c r="B40">
-        <v>2.420589965</v>
+        <v>0.008219341</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.031775</v>
+        <v>1.979055</v>
       </c>
       <c r="B41">
-        <v>0.164391294</v>
+        <v>0.947538118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.06355</v>
+        <v>0.09724</v>
       </c>
       <c r="B42">
-        <v>0.084520817</v>
+        <v>0.008830571</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>2.001825</v>
+        <v>1.98016</v>
       </c>
       <c r="B43">
-        <v>0.808989862</v>
+        <v>0.995711749</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2.001825</v>
+        <v>0.065195</v>
       </c>
       <c r="B44">
-        <v>3.209369226</v>
+        <v>0.011475711</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.87535</v>
+        <v>1.959165</v>
       </c>
       <c r="B45">
-        <v>2.182089942</v>
+        <v>0.991158491</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>2.001825</v>
+        <v>1.98016</v>
       </c>
       <c r="B46">
-        <v>0.609991679</v>
+        <v>1.029349242</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>2.001825</v>
+        <v>0.00442</v>
       </c>
       <c r="B47">
-        <v>1.625575062</v>
+        <v>0.012235781</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.97415</v>
+        <v>1.979055</v>
       </c>
       <c r="B48">
-        <v>0.55149542</v>
+        <v>0.954009951</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.023575</v>
+        <v>0.009945</v>
       </c>
       <c r="B49">
-        <v>0.333278868</v>
+        <v>0.00977708</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>2.001825</v>
+        <v>1.98016</v>
       </c>
       <c r="B50">
-        <v>0.502762062</v>
+        <v>0.995684633</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1.007575</v>
+        <v>0.0221</v>
       </c>
       <c r="B51">
-        <v>0.293046209</v>
+        <v>0.00953765</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.9717</v>
+        <v>1.98016</v>
       </c>
       <c r="B52">
-        <v>0.702844505</v>
+        <v>0.984722843</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1.973125</v>
+        <v>0.05083</v>
       </c>
       <c r="B53">
-        <v>1.996123108</v>
+        <v>0.00719303</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.0492</v>
+        <v>1.98016</v>
       </c>
       <c r="B54">
-        <v>0.312423059</v>
+        <v>0.997557783</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1.036275</v>
+        <v>0.07956</v>
       </c>
       <c r="B55">
-        <v>0.662154556</v>
+        <v>0.008551081</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1.973125</v>
+        <v>1.98016</v>
       </c>
       <c r="B56">
-        <v>2.027410877</v>
+        <v>0.988560034</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.04305</v>
+        <v>0.13481</v>
       </c>
       <c r="B57">
-        <v>0.523582511</v>
+        <v>0.021415051</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.04345</v>
+        <v>1.98016</v>
       </c>
       <c r="B58">
-        <v>0.450413424</v>
+        <v>0.986544214</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1.017825</v>
+        <v>0.03757</v>
       </c>
       <c r="B59">
-        <v>0.999825443</v>
+        <v>0.011006621</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1.973125</v>
+        <v>1.98016</v>
       </c>
       <c r="B60">
-        <v>2.038402626</v>
+        <v>0.993125995</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.03895</v>
+        <v>0.04862</v>
       </c>
       <c r="B61">
-        <v>0.283411489</v>
+        <v>0.0064502</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1.0578</v>
+        <v>1.979055</v>
       </c>
       <c r="B62">
-        <v>0.688092895</v>
+        <v>1.006415497</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1.019875</v>
+        <v>0.020995</v>
       </c>
       <c r="B63">
-        <v>0.988578034</v>
+        <v>0.00897014</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1.973125</v>
+        <v>1.979055</v>
       </c>
       <c r="B64">
-        <v>2.025784906</v>
+        <v>0.965634496</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.09635</v>
+        <v>0.003315</v>
       </c>
       <c r="B65">
-        <v>2.214733168</v>
+        <v>0.00746927</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.001025</v>
+        <v>1.979055</v>
       </c>
       <c r="B66">
-        <v>0.128796486</v>
+        <v>0.993212227</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>2.001825</v>
+        <v>0.047515</v>
       </c>
       <c r="B67">
-        <v>0.643719326</v>
+        <v>0.012769491</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.112125</v>
+        <v>1.98016</v>
       </c>
       <c r="B68">
-        <v>1.207172315</v>
+        <v>0.991923097</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1.97415</v>
+        <v>0.04862</v>
       </c>
       <c r="B69">
-        <v>0.804237291</v>
+        <v>0.010554831</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.031775</v>
+        <v>1.98016</v>
       </c>
       <c r="B70">
-        <v>0.554722719</v>
+        <v>0.983627177</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1.025</v>
+        <v>0.12597</v>
       </c>
       <c r="B71">
-        <v>0.431581374</v>
+        <v>0.027147572</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1.973125</v>
+        <v>1.98016</v>
       </c>
       <c r="B72">
-        <v>2.007609406</v>
+        <v>0.980641908</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.03485</v>
+        <v>0.08398</v>
       </c>
       <c r="B73">
-        <v>0.536998489</v>
+        <v>0.00994394</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1.02705</v>
+        <v>1.979055</v>
       </c>
       <c r="B74">
-        <v>0.471851193</v>
+        <v>0.99051936</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1.0086</v>
+        <v>0.034255</v>
       </c>
       <c r="B75">
-        <v>0.990607272</v>
+        <v>0.01144737</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1.001425</v>
+        <v>1.979055</v>
       </c>
       <c r="B76">
-        <v>0.989555983</v>
+        <v>1.041872602</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1.973125</v>
+        <v>0.02873</v>
       </c>
       <c r="B77">
-        <v>2.017987416</v>
+        <v>0.00835948</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.04715</v>
+        <v>1.979055</v>
       </c>
       <c r="B78">
-        <v>2.36238648</v>
+        <v>0.935902328</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>2.001825</v>
+        <v>0.01989</v>
       </c>
       <c r="B79">
-        <v>0.630141757</v>
+        <v>0.008147621</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1.0742</v>
+        <v>1.98016</v>
       </c>
       <c r="B80">
-        <v>1.04466042</v>
+        <v>0.9826295</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1.973125</v>
+        <v>0.0221</v>
       </c>
       <c r="B81">
-        <v>0.954176194</v>
+        <v>0.011749641</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.0779</v>
+        <v>1.98016</v>
       </c>
       <c r="B82">
-        <v>0.602987227</v>
+        <v>0.986846841</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.972725</v>
+        <v>0.05304</v>
       </c>
       <c r="B83">
-        <v>0.382748966</v>
+        <v>0.01197103</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.064975</v>
+        <v>1.98016</v>
       </c>
       <c r="B84">
-        <v>1.006199762</v>
+        <v>1.002664713</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1.056775</v>
+        <v>0.07072</v>
       </c>
       <c r="B85">
-        <v>1.004403952</v>
+        <v>0.00711521</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1.973125</v>
+        <v>1.98016</v>
       </c>
       <c r="B86">
-        <v>2.008062083</v>
+        <v>0.983974582</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.07995</v>
+        <v>0.10387</v>
       </c>
       <c r="B87">
-        <v>1.3097119</v>
+        <v>0.006969331</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.973125</v>
+        <v>1.98016</v>
       </c>
       <c r="B88">
-        <v>0.703880923</v>
+        <v>0.994679073</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.0451</v>
+        <v>0.06851</v>
       </c>
       <c r="B89">
-        <v>1.658988927</v>
+        <v>0.01262928</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1.973125</v>
+        <v>1.98016</v>
       </c>
       <c r="B90">
-        <v>0.332654047</v>
+        <v>0.992271954</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.03895</v>
+        <v>0.02652</v>
       </c>
       <c r="B91">
-        <v>2.527556653</v>
+        <v>0.01148536</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>2.001825</v>
+        <v>1.979055</v>
       </c>
       <c r="B92">
-        <v>0.475840621</v>
+        <v>0.998384045</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1.028075</v>
+        <v>0.043095</v>
       </c>
       <c r="B93">
-        <v>0.513480761</v>
+        <v>0.00721367</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.985025</v>
+        <v>1.979055</v>
       </c>
       <c r="B94">
-        <v>1.474406163</v>
+        <v>0.982655575</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.031775</v>
+        <v>0.047515</v>
       </c>
       <c r="B95">
-        <v>1.6100214579999998</v>
+        <v>0.01203352</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>2.001825</v>
+        <v>1.94922</v>
       </c>
       <c r="B96">
-        <v>0.423530843</v>
+        <v>0.981786225</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.93685</v>
+        <v>1.98016</v>
       </c>
       <c r="B97">
-        <v>2.371479538</v>
+        <v>0.996143466</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.06355</v>
+        <v>0.04641</v>
       </c>
       <c r="B98">
-        <v>0.881696136</v>
+        <v>0.00792698</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>2.001825</v>
+        <v>1.98016</v>
       </c>
       <c r="B99">
-        <v>0.725451292</v>
+        <v>0.995038987</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1.973125</v>
+        <v>0.03315</v>
       </c>
       <c r="B100">
-        <v>1.6402439960000001</v>
+        <v>0.00999233</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.009225</v>
+        <v>1.98016</v>
       </c>
       <c r="B101">
-        <v>1.763340301</v>
+        <v>0.996951267</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.031775</v>
+        <v>0.09945</v>
       </c>
       <c r="B102">
-        <v>0.062952057</v>
+        <v>0.008589391</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>2.001825</v>
+        <v>1.98016</v>
       </c>
       <c r="B103">
-        <v>0.52792337</v>
+        <v>0.982079367</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.948525</v>
+        <v>0.10608</v>
       </c>
       <c r="B104">
-        <v>0.622645785</v>
+        <v>0.00719683</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>2.001825</v>
+        <v>1.979055</v>
       </c>
       <c r="B105">
-        <v>3.409441196</v>
+        <v>0.998215498</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1.973125</v>
+        <v>0.087295</v>
       </c>
       <c r="B106">
-        <v>2.340784938</v>
+        <v>0.01202192</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.10455</v>
+        <v>1.98016</v>
       </c>
       <c r="B107">
-        <v>2.916610264</v>
+        <v>0.987330509</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>2.001825</v>
+        <v>0.05083</v>
       </c>
       <c r="B108">
-        <v>0.710090532</v>
+        <v>0.012829621</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>2.001825</v>
+        <v>1.98016</v>
       </c>
       <c r="B109">
-        <v>1.669020584</v>
+        <v>0.992098659</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1.973125</v>
+        <v>0.03978</v>
       </c>
       <c r="B110">
-        <v>3.055085387</v>
+        <v>0.00616583</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.154775</v>
+        <v>1.98237</v>
       </c>
       <c r="B111">
-        <v>2.616815925</v>
+        <v>0.99653457</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.031775</v>
+        <v>0.01547</v>
       </c>
       <c r="B112">
-        <v>0.296452099</v>
+        <v>0.01455862</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>2.001825</v>
+        <v>1.979055</v>
       </c>
       <c r="B113">
-        <v>0.359255385</v>
+        <v>0.97853515</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>2.001825</v>
+        <v>0.065195</v>
       </c>
       <c r="B114">
-        <v>0.579968237</v>
+        <v>0.00754044</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>2.001825</v>
+        <v>1.979055</v>
       </c>
       <c r="B115">
-        <v>1.5841404460000001</v>
+        <v>0.994567811</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>2.0008</v>
+        <v>0.076245</v>
       </c>
       <c r="B116">
-        <v>0.961280321</v>
+        <v>0.00960308</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.083025</v>
+        <v>1.979055</v>
       </c>
       <c r="B117">
-        <v>2.71131783</v>
+        <v>0.984058921</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.031775</v>
+        <v>0.085085</v>
       </c>
       <c r="B118">
-        <v>0.137562615</v>
+        <v>0.010130901</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.06355</v>
+        <v>1.1271</v>
       </c>
       <c r="B119">
-        <v>0.072041837</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <v>0.031775</v>
-      </c>
-      <c r="B120">
-        <v>0.107722175</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <v>2.001825</v>
-      </c>
-      <c r="B121">
-        <v>0.849459606</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <v>2.001825</v>
-      </c>
-      <c r="B122">
-        <v>2.45358254</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>2.001825</v>
-      </c>
-      <c r="B123">
-        <v>2.530858317</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>0.976825</v>
-      </c>
-      <c r="B124">
-        <v>1.5880172259999998</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>0.031775</v>
-      </c>
-      <c r="B125">
-        <v>1.2346063090000001</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>0.031775</v>
-      </c>
-      <c r="B126">
-        <v>0.128691145</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>0.1271</v>
-      </c>
-      <c r="B127">
-        <v>0.073283376</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>2.001825</v>
-      </c>
-      <c r="B128">
-        <v>0.99675933</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>2.001825</v>
-      </c>
-      <c r="B129">
-        <v>1.352710784</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>2.001825</v>
-      </c>
-      <c r="B130">
-        <v>1.328927835</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>2.001825</v>
-      </c>
-      <c r="B131">
-        <v>2.108924563</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>1.0414</v>
-      </c>
-      <c r="B132">
-        <v>1.591794915</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>0.031775</v>
-      </c>
-      <c r="B133">
-        <v>0.574042636</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>0.06355</v>
-      </c>
-      <c r="B134">
-        <v>0.061472297</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>0.06355</v>
-      </c>
-      <c r="B135">
-        <v>0.120963575</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>2.001825</v>
-      </c>
-      <c r="B136">
-        <v>0.860436895</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>2.001825</v>
-      </c>
-      <c r="B137">
-        <v>2.106591852</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>2.001825</v>
-      </c>
-      <c r="B138">
-        <v>1.237933369</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>1.870625</v>
-      </c>
-      <c r="B139">
-        <v>1.747317437</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>0.095325</v>
-      </c>
-      <c r="B140">
-        <v>1.140151522</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>0.06355</v>
-      </c>
-      <c r="B141">
-        <v>0.138584525</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>2.001825</v>
-      </c>
-      <c r="B142">
-        <v>0.627037824</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>2.001825</v>
-      </c>
-      <c r="B143">
-        <v>2.075233292</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>2.001825</v>
-      </c>
-      <c r="B144">
-        <v>2.997443994</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>0.968625</v>
-      </c>
-      <c r="B145">
-        <v>1.158841942</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>0.001025</v>
-      </c>
-      <c r="B146">
-        <v>1.384231021</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>0.06355</v>
-      </c>
-      <c r="B147">
-        <v>0.061609588</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>0.06355</v>
-      </c>
-      <c r="B148">
-        <v>0.123291414</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>2.001825</v>
-      </c>
-      <c r="B149">
-        <v>0.24495228</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>0.667275</v>
-      </c>
-      <c r="B150">
-        <v>0.694838881</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>0.158875</v>
-      </c>
-      <c r="B151">
-        <v>0.902572281</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152">
-        <v>2.001825</v>
-      </c>
-      <c r="B152">
-        <v>0.356405695</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153">
-        <v>1.0168</v>
-      </c>
-      <c r="B153">
-        <v>2.569791591</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154">
-        <v>0.031775</v>
-      </c>
-      <c r="B154">
-        <v>1.313098884</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155">
-        <v>0.031775</v>
-      </c>
-      <c r="B155">
-        <v>0.078815287</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156">
-        <v>0.06355</v>
-      </c>
-      <c r="B156">
-        <v>0.109185075</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157">
-        <v>2.001825</v>
-      </c>
-      <c r="B157">
-        <v>0.929193451</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158">
-        <v>2.001825</v>
-      </c>
-      <c r="B158">
-        <v>2.33419373</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159">
-        <v>2.001825</v>
-      </c>
-      <c r="B159">
-        <v>1.790840284</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160">
-        <v>2.001825</v>
-      </c>
-      <c r="B160">
-        <v>0.68423966</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161">
-        <v>1.062925</v>
-      </c>
-      <c r="B161">
-        <v>2.205447485</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162">
-        <v>0.095325</v>
-      </c>
-      <c r="B162">
-        <v>0.394192354</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163">
-        <v>2.001825</v>
-      </c>
-      <c r="B163">
-        <v>0.581489975</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164">
-        <v>2.001825</v>
-      </c>
-      <c r="B164">
-        <v>2.31585683</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165">
-        <v>2.001825</v>
-      </c>
-      <c r="B165">
-        <v>2.019231833</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166">
-        <v>1.973125</v>
-      </c>
-      <c r="B166">
-        <v>2.312511021</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167">
-        <v>0.140425</v>
-      </c>
-      <c r="B167">
-        <v>2.807859137</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168">
-        <v>0.031775</v>
-      </c>
-      <c r="B168">
-        <v>0.176126213</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169">
-        <v>0.06355</v>
-      </c>
-      <c r="B169">
-        <v>0.068080327</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170">
-        <v>2.001825</v>
-      </c>
-      <c r="B170">
-        <v>0.318440236</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171">
-        <v>2.001825</v>
-      </c>
-      <c r="B171">
-        <v>1.971187314</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172">
-        <v>2.001825</v>
-      </c>
-      <c r="B172">
-        <v>1.873744768</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173">
-        <v>1.505725</v>
-      </c>
-      <c r="B173">
-        <v>1.450709388</v>
+        <v>0.980435431</v>
       </c>
     </row>
   </sheetData>
